--- a/Results_May_15_mostrecentupdateAugust3/coral_all_Current_Thesis.xlsx
+++ b/Results_May_15_mostrecentupdateAugust3/coral_all_Current_Thesis.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="9288"/>
+    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="9288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="coral_all" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>K</t>
   </si>
@@ -104,6 +105,21 @@
   </si>
   <si>
     <t>Model Names</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>K*</t>
+  </si>
+  <si>
+    <t>Delta AICc</t>
+  </si>
+  <si>
+    <t>Akaike weight</t>
+  </si>
+  <si>
+    <t>Log-likelihood</t>
   </si>
 </sst>
 </file>
@@ -113,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +278,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +472,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -585,6 +614,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -630,7 +670,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -639,6 +679,9 @@
     <xf numFmtId="2" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -983,7 +1026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1599,4 +1644,479 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1044.21235624367</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.58073989012270399</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-518.01139139197801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1045.6317048410799</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.4193485974042199</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.28561040574546498</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-517.67299527768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1047.15966772924</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.9473114855647999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.13303965217000199</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-511.93277504108801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1058.2415879221501</v>
+      </c>
+      <c r="D5" s="6">
+        <v>14.029231678481899</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5.2188246668754602E-4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-526.06419018749102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1062.53519279037</v>
+      </c>
+      <c r="D6" s="6">
+        <v>18.322836546702099</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.09857340517549E-5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-520.73101102933299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1064.15337513861</v>
+      </c>
+      <c r="D7" s="6">
+        <v>19.9410188949423</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.7154663367280901E-5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-513.531233023852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1078.73485213604</v>
+      </c>
+      <c r="D8" s="6">
+        <v>34.522495892373598</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.8514710438749201E-8</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-528.83084070216898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1080.9041939664901</v>
+      </c>
+      <c r="D9" s="6">
+        <v>36.691837722814199</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.2582128663444401E-9</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-528.80503815971304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1083.7222463220901</v>
+      </c>
+      <c r="D10" s="6">
+        <v>39.509890078422799</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.5293892641263899E-9</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-532.42422995716299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1084.2002116318999</v>
+      </c>
+      <c r="D11" s="6">
+        <v>39.987855388230201</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.20428475576806E-9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-530.45304699242104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1084.94593591329</v>
+      </c>
+      <c r="D12" s="6">
+        <v>40.7335796696225</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8.2946338310430597E-10</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-531.93638259079296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1085.3879514103101</v>
+      </c>
+      <c r="D13" s="6">
+        <v>41.175595166636398</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6.6498947722910103E-10</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-532.15739033930004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1090.886644126</v>
+      </c>
+      <c r="D14" s="6">
+        <v>46.6742878823297</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.2539151301275403E-11</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-526.89786751754605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1091.2700808095699</v>
+      </c>
+      <c r="D15" s="6">
+        <v>47.0577245658951</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3.5117743556957399E-11</v>
+      </c>
+      <c r="F15" s="6">
+        <v>-527.08958585932896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1092.49698373963</v>
+      </c>
+      <c r="D16" s="6">
+        <v>48.284627495961097</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.90155117152235E-11</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-527.70303732436196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1127.07656932754</v>
+      </c>
+      <c r="D17" s="6">
+        <v>82.864213083870695</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5.8917785271573698E-19</v>
+      </c>
+      <c r="F17" s="6">
+        <v>-559.44349793391302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1127.96171042536</v>
+      </c>
+      <c r="D18" s="6">
+        <v>83.749354181688901</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3.78477848314125E-19</v>
+      </c>
+      <c r="F18" s="6">
+        <v>-558.83799806982302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1131.20921445004</v>
+      </c>
+      <c r="D19" s="6">
+        <v>86.996858206365005</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7.4619773611033195E-20</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-562.54800345143303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1161.0829272053099</v>
+      </c>
+      <c r="D20" s="6">
+        <v>116.870570961639</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.4314179877844899E-26</v>
+      </c>
+      <c r="F20" s="6">
+        <v>-577.48485982907005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1162.19940303771</v>
+      </c>
+      <c r="D21" s="6">
+        <v>117.987046794035</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.3912974165905099E-26</v>
+      </c>
+      <c r="F21" s="6">
+        <v>-577.00491478899505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1163.64971715192</v>
+      </c>
+      <c r="D22" s="6">
+        <v>119.437360908248</v>
+      </c>
+      <c r="E22" s="4">
+        <v>6.7373369860354496E-27</v>
+      </c>
+      <c r="F22" s="6">
+        <v>-576.68200143310196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1165.0244244320199</v>
+      </c>
+      <c r="D23" s="7">
+        <v>120.81206818835</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3.38824165459713E-27</v>
+      </c>
+      <c r="F23" s="7">
+        <v>-579.45560844242596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>